--- a/balance.xlsx
+++ b/balance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="311">
   <si>
     <t>Level</t>
   </si>
@@ -22,33 +22,48 @@
     <t>Abjuration</t>
   </si>
   <si>
+    <t>Abjuration Lore</t>
+  </si>
+  <si>
+    <t>Banish</t>
+  </si>
+  <si>
+    <t>Circle of Protection</t>
+  </si>
+  <si>
     <t>Contego</t>
   </si>
   <si>
-    <t>Banish</t>
-  </si>
-  <si>
     <t>Commune</t>
   </si>
   <si>
+    <t>Eldritch Shield</t>
+  </si>
+  <si>
     <t>Flesh Ward</t>
   </si>
   <si>
-    <t>Circle of Protection</t>
-  </si>
-  <si>
-    <t>Eldritch Shield</t>
-  </si>
-  <si>
     <t>Arcana</t>
   </si>
   <si>
+    <t>Aegis</t>
+  </si>
+  <si>
     <t>Alarum</t>
   </si>
   <si>
+    <t>Arcana Lore</t>
+  </si>
+  <si>
     <t>Cloak of Shadows</t>
   </si>
   <si>
+    <t>Ignis</t>
+  </si>
+  <si>
+    <t>Incendo</t>
+  </si>
+  <si>
     <t>True Sight</t>
   </si>
   <si>
@@ -64,631 +79,784 @@
     <t>Dead Eye</t>
   </si>
   <si>
+    <t>Fast Shot</t>
+  </si>
+  <si>
+    <t>Long Bow Proficency</t>
+  </si>
+  <si>
     <t>Rain of Arrows</t>
   </si>
   <si>
-    <t>Long Bow Proficency</t>
+    <t>Art Abilities</t>
+  </si>
+  <si>
+    <t>Arts Lore</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Fine Art</t>
+  </si>
+  <si>
+    <t>Jester</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Musician - Keyed</t>
+  </si>
+  <si>
+    <t>Musician - Percussion</t>
+  </si>
+  <si>
+    <t>Musician - Singing</t>
+  </si>
+  <si>
+    <t>Musician - Strings</t>
+  </si>
+  <si>
+    <t>Musician - Wind Instrument</t>
+  </si>
+  <si>
+    <t>Oratory</t>
   </si>
   <si>
     <t>Axe Proficiency</t>
   </si>
   <si>
+    <t>Axe Cleave</t>
+  </si>
+  <si>
+    <t>Axe Frenzy</t>
+  </si>
+  <si>
+    <t>Axe Hook</t>
+  </si>
+  <si>
     <t>Axe Strike</t>
   </si>
   <si>
-    <t>Axe Hook</t>
-  </si>
-  <si>
-    <t>Axe Cleave</t>
-  </si>
-  <si>
-    <t>Axe Frenzy</t>
-  </si>
-  <si>
-    <t>Club Proficiency</t>
-  </si>
-  <si>
-    <t>Club Strike</t>
-  </si>
-  <si>
-    <t>Club Smash</t>
-  </si>
-  <si>
-    <t>Club Wild Swing</t>
-  </si>
-  <si>
     <t>Conjuration</t>
   </si>
   <si>
+    <t>Conjuration Lore</t>
+  </si>
+  <si>
+    <t>Eldritch Push</t>
+  </si>
+  <si>
+    <t>Eldritch Grasp</t>
+  </si>
+  <si>
+    <t>Scry</t>
+  </si>
+  <si>
+    <t>Scry, Greater</t>
+  </si>
+  <si>
+    <t>Wither</t>
+  </si>
+  <si>
+    <t>Craft Abilities</t>
+  </si>
+  <si>
+    <t>Armour Smith</t>
+  </si>
+  <si>
+    <t>Builder</t>
+  </si>
+  <si>
+    <t>Carpentry</t>
+  </si>
+  <si>
+    <t>Cartwright</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Craft</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Shipwright</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Weapon Smith</t>
+  </si>
+  <si>
+    <t>Crossbow Proficiency</t>
+  </si>
+  <si>
+    <t>Crossbow</t>
+  </si>
+  <si>
+    <t>Fast Loader</t>
+  </si>
+  <si>
+    <t>Heavy Cross Bow</t>
+  </si>
+  <si>
+    <t>Dagger Proficiency</t>
+  </si>
+  <si>
+    <t>Dagger Riposte</t>
+  </si>
+  <si>
+    <t>Dagger Strike</t>
+  </si>
+  <si>
+    <t>Throw Dagger</t>
+  </si>
+  <si>
+    <t>Elemental Magic</t>
+  </si>
+  <si>
+    <t>Black Colossus</t>
+  </si>
+  <si>
+    <t>Burning Hands</t>
+  </si>
+  <si>
+    <t>Elemental Lore</t>
+  </si>
+  <si>
+    <t>Fyre</t>
+  </si>
+  <si>
+    <t>Gaseous Form</t>
+  </si>
+  <si>
+    <t>Kiss of the Deep</t>
+  </si>
+  <si>
+    <t>Mist</t>
+  </si>
+  <si>
+    <t>Shatter</t>
+  </si>
+  <si>
+    <t>Smoke Weasel</t>
+  </si>
+  <si>
+    <t>Stone Skin</t>
+  </si>
+  <si>
+    <t>Summon Elemental</t>
+  </si>
+  <si>
+    <t>Enchantment</t>
+  </si>
+  <si>
+    <t>Auri Fames</t>
+  </si>
+  <si>
+    <t>Enchantment Lore</t>
+  </si>
+  <si>
+    <t>Glamour</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>Mind Worm</t>
+  </si>
+  <si>
+    <t>Speak with Amphibians</t>
+  </si>
+  <si>
+    <t>Speak with Birds</t>
+  </si>
+  <si>
+    <t>Speak with Cats</t>
+  </si>
+  <si>
+    <t>Speak with Horses</t>
+  </si>
+  <si>
+    <t>Speak with Rodents</t>
+  </si>
+  <si>
+    <t>Speak with Wolves</t>
+  </si>
+  <si>
+    <t>Zoolingualism</t>
+  </si>
+  <si>
+    <t>Evocation</t>
+  </si>
+  <si>
+    <t>Bind</t>
+  </si>
+  <si>
+    <t>Evocation Lore</t>
+  </si>
+  <si>
+    <t>Greater Portal</t>
+  </si>
+  <si>
+    <t>Lesser Portal</t>
+  </si>
+  <si>
+    <t>Phantasmal Leech</t>
+  </si>
+  <si>
+    <t>Phantasmal Vulture</t>
+  </si>
+  <si>
     <t>Portal</t>
   </si>
   <si>
-    <t>Greater Portal</t>
+    <t>Shade</t>
+  </si>
+  <si>
+    <t>Summon</t>
   </si>
   <si>
     <t>Wyld Portal</t>
   </si>
   <si>
-    <t>Phantasmal Leech</t>
-  </si>
-  <si>
-    <t>Phantasmal Vulture</t>
-  </si>
-  <si>
-    <t>Summon</t>
-  </si>
-  <si>
-    <t>Bind</t>
-  </si>
-  <si>
-    <t>Craft Abilities</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Weapon Smith</t>
-  </si>
-  <si>
-    <t>Armour Smith</t>
-  </si>
-  <si>
-    <t>Carpentry</t>
-  </si>
-  <si>
-    <t>Builder</t>
-  </si>
-  <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
-    <t>Shipwright</t>
-  </si>
-  <si>
-    <t>Cooper</t>
-  </si>
-  <si>
-    <t>Mason</t>
-  </si>
-  <si>
-    <t>Farmer</t>
-  </si>
-  <si>
-    <t>Crossbow Proficiency</t>
-  </si>
-  <si>
-    <t>Crossbow Use</t>
-  </si>
-  <si>
-    <t>Fast Loader</t>
-  </si>
-  <si>
-    <t>Heavy Cross Bow Proficency</t>
-  </si>
-  <si>
-    <t>Dagger Proficiency</t>
-  </si>
-  <si>
-    <t>Dagger Strike</t>
-  </si>
-  <si>
-    <t>Throw Dagger</t>
-  </si>
-  <si>
-    <t>Dagger Riposte (Dual Wielding)</t>
-  </si>
-  <si>
-    <t>Elemental Magic</t>
-  </si>
-  <si>
-    <t>Kiss of the Deep</t>
-  </si>
-  <si>
-    <t>Shatter</t>
-  </si>
-  <si>
-    <t>Smoke Weasel</t>
-  </si>
-  <si>
-    <t>Stone Skin</t>
-  </si>
-  <si>
-    <t>Mist</t>
-  </si>
-  <si>
-    <t>Enchantments</t>
-  </si>
-  <si>
-    <t>Enchantment</t>
-  </si>
-  <si>
-    <t>Zoolingualism</t>
-  </si>
-  <si>
-    <t>Auri Fames</t>
-  </si>
-  <si>
-    <t>Glamour</t>
-  </si>
-  <si>
-    <t>Mind Worm</t>
-  </si>
-  <si>
-    <t>Hex</t>
-  </si>
-  <si>
-    <t>Speak with Amphibians</t>
-  </si>
-  <si>
-    <t>Speak with Wolves</t>
-  </si>
-  <si>
-    <t>Speak with Horses</t>
-  </si>
-  <si>
-    <t>Speak with Cats</t>
-  </si>
-  <si>
-    <t>Speak with Birds</t>
-  </si>
-  <si>
-    <t>Speak with Rodents</t>
-  </si>
-  <si>
-    <t>Evocation</t>
-  </si>
-  <si>
-    <t>Eldritch Push</t>
-  </si>
-  <si>
-    <t>Eldritch Grasp</t>
-  </si>
-  <si>
-    <t>Incendo</t>
-  </si>
-  <si>
-    <t>Scry</t>
-  </si>
-  <si>
-    <t>Scry, Greater</t>
-  </si>
-  <si>
-    <t>Wither</t>
-  </si>
-  <si>
-    <t>Fine Art Abilities</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>Oratory</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Jester</t>
-  </si>
-  <si>
-    <t>Dance</t>
-  </si>
-  <si>
-    <t>Musician - Percussion</t>
-  </si>
-  <si>
-    <t>Musician - Wind Instrument</t>
-  </si>
-  <si>
-    <t>Musician - Strings</t>
-  </si>
-  <si>
-    <t>Musician - Keyed</t>
-  </si>
-  <si>
-    <t>Musician - Singing</t>
-  </si>
-  <si>
     <t>Gun Proficiency</t>
   </si>
   <si>
-    <t>Gun Shoot</t>
+    <t>Gun Maintenance</t>
   </si>
   <si>
     <t>Sharp Shooter</t>
   </si>
   <si>
-    <t>Gun Maintenance</t>
+    <t>Shoot</t>
   </si>
   <si>
     <t>Hammer Proficiency</t>
   </si>
   <si>
+    <t>Hammer Smash</t>
+  </si>
+  <si>
     <t>Hammer Strike</t>
   </si>
   <si>
-    <t>Hammer Smash</t>
-  </si>
-  <si>
     <t>Language Abilities</t>
   </si>
   <si>
-    <t>Brythinian/Common</t>
-  </si>
-  <si>
-    <t>Khuzdern/Dwarvern</t>
+    <t>Aquillonian</t>
+  </si>
+  <si>
+    <t>Dwarvern</t>
+  </si>
+  <si>
+    <t>Fey</t>
+  </si>
+  <si>
+    <t>Lagashi</t>
+  </si>
+  <si>
+    <t>Merovingian</t>
+  </si>
+  <si>
+    <t>Poitevin</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
   </si>
   <si>
     <t>Inochian</t>
   </si>
   <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Aquillonian</t>
-  </si>
-  <si>
     <t>Sylvan</t>
   </si>
   <si>
-    <t>Fey</t>
-  </si>
-  <si>
     <t>Lore Abilities</t>
   </si>
   <si>
+    <t>Alchemy</t>
+  </si>
+  <si>
+    <t>Alchemy, Lesser</t>
+  </si>
+  <si>
+    <t>Alchemy, Greater</t>
+  </si>
+  <si>
     <t>Antiquarian</t>
   </si>
   <si>
+    <t>Barber</t>
+  </si>
+  <si>
     <t>Book Keeping</t>
   </si>
   <si>
-    <t>Mathemathics</t>
-  </si>
-  <si>
-    <t>Alchemy</t>
+    <t>Book Learning</t>
   </si>
   <si>
     <t>Grand Discovery</t>
   </si>
   <si>
-    <t>Law (Society)</t>
-  </si>
-  <si>
     <t>History</t>
   </si>
   <si>
+    <t>Law [Society]</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Natural History</t>
+  </si>
+  <si>
+    <t>Physician</t>
+  </si>
+  <si>
     <t>Physics</t>
   </si>
   <si>
-    <t>Earth Science</t>
-  </si>
-  <si>
-    <t>Natural History</t>
-  </si>
-  <si>
-    <t>Politics</t>
+    <t>Politics [Society]</t>
+  </si>
+  <si>
+    <t>Potion Making</t>
   </si>
   <si>
     <t>Theology</t>
   </si>
   <si>
-    <t>Potion Making</t>
-  </si>
-  <si>
     <t>Luck Abilities</t>
   </si>
   <si>
+    <t>Brilliant Planner</t>
+  </si>
+  <si>
     <t>Lucky</t>
   </si>
   <si>
+    <t>I Think I'm OK!</t>
+  </si>
+  <si>
+    <t>Misfortune</t>
+  </si>
+  <si>
+    <t>Nick of Time</t>
+  </si>
+  <si>
+    <t>Not As Bad As It Looks</t>
+  </si>
+  <si>
     <t>Reroll</t>
   </si>
   <si>
-    <t>Not As Bad As It Looks</t>
-  </si>
-  <si>
-    <t>Nick of Time</t>
-  </si>
-  <si>
-    <t>Misfortune</t>
-  </si>
-  <si>
-    <t>Brilliant Planner</t>
-  </si>
-  <si>
-    <t>Magic Abilities</t>
-  </si>
-  <si>
-    <t>Theurgic Magic</t>
+    <t>Mace Proficiency</t>
+  </si>
+  <si>
+    <t>Mace Smash</t>
+  </si>
+  <si>
+    <t>Mace Strike</t>
+  </si>
+  <si>
+    <t>Mace Wild Swing</t>
+  </si>
+  <si>
+    <t>Mace Parry</t>
+  </si>
+  <si>
+    <t>Monster Abilities</t>
+  </si>
+  <si>
+    <t>Bite</t>
+  </si>
+  <si>
+    <t>Blood Rage</t>
+  </si>
+  <si>
+    <t>Claw</t>
+  </si>
+  <si>
+    <t>Countless Bites</t>
+  </si>
+  <si>
+    <t>Death Blow</t>
+  </si>
+  <si>
+    <t>Demon Instability</t>
+  </si>
+  <si>
+    <t>Fleet</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Horns</t>
+  </si>
+  <si>
+    <t>Horns, Greater</t>
+  </si>
+  <si>
+    <t>Horns, Lesser</t>
+  </si>
+  <si>
+    <t>Poisonous Bite</t>
+  </si>
+  <si>
+    <t>Prehensile Tail</t>
+  </si>
+  <si>
+    <t>Prehensile Tongue</t>
+  </si>
+  <si>
+    <t>Regeneration</t>
+  </si>
+  <si>
+    <t>Summon Demon</t>
+  </si>
+  <si>
+    <t>Swarm</t>
+  </si>
+  <si>
+    <t>Terrifying</t>
+  </si>
+  <si>
+    <t>Terrifying Clarion</t>
+  </si>
+  <si>
+    <t>Watch Out Sir!</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Necromancy</t>
+  </si>
+  <si>
+    <t>Commune with the Dead</t>
+  </si>
+  <si>
+    <t>Graft Flesh</t>
+  </si>
+  <si>
+    <t>Stay Death</t>
+  </si>
+  <si>
+    <t>Offering for the Blood Soucriant</t>
+  </si>
+  <si>
+    <t>Physical Abilities</t>
+  </si>
+  <si>
+    <t>Armour</t>
+  </si>
+  <si>
+    <t>Blindsight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Climb</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Flee</t>
+  </si>
+  <si>
+    <t>Grapple</t>
+  </si>
+  <si>
+    <t>Head Butt</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>Juggernaut</t>
+  </si>
+  <si>
+    <t>Knockout</t>
+  </si>
+  <si>
+    <t>Kick</t>
+  </si>
+  <si>
+    <t>Listen</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t>Punch</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Sixth Sense</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Sure Feet</t>
+  </si>
+  <si>
+    <t>Swim</t>
+  </si>
+  <si>
+    <t>Throw</t>
+  </si>
+  <si>
+    <t>Witness Me</t>
+  </si>
+  <si>
+    <t>Primary Abilities</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Endurance</t>
+  </si>
+  <si>
+    <t>Agility</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Perception</t>
+  </si>
+  <si>
+    <t>Rune Magic</t>
+  </si>
+  <si>
+    <t>Hold Door</t>
+  </si>
+  <si>
+    <t>Rune Lore</t>
+  </si>
+  <si>
+    <t>Sign of Idreshein</t>
+  </si>
+  <si>
+    <t>Shield Proficiency</t>
+  </si>
+  <si>
+    <t>Shield Block</t>
+  </si>
+  <si>
+    <t>Shield Push</t>
+  </si>
+  <si>
+    <t>Shield Support</t>
+  </si>
+  <si>
+    <t>Skullduggery Abilities</t>
+  </si>
+  <si>
+    <t>Cloak Fighting</t>
+  </si>
+  <si>
+    <t>Concealment</t>
+  </si>
+  <si>
+    <t>Contortionist/Escape Artist</t>
+  </si>
+  <si>
+    <t>Cryptogrtaphy</t>
+  </si>
+  <si>
+    <t>Disguise</t>
+  </si>
+  <si>
+    <t>Pick Locks</t>
+  </si>
+  <si>
+    <t>Back Stab</t>
+  </si>
+  <si>
+    <t>Ropecraft</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Sleight of Hand</t>
+  </si>
+  <si>
+    <t>Sneak</t>
+  </si>
+  <si>
+    <t>Trap Work</t>
+  </si>
+  <si>
+    <t>Social Abilities</t>
+  </si>
+  <si>
+    <t>Adversary</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Deceive</t>
+  </si>
+  <si>
+    <t>Etiquette</t>
+  </si>
+  <si>
+    <t>Fame</t>
+  </si>
+  <si>
+    <t>Interrogate</t>
+  </si>
+  <si>
+    <t>Intimidate</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Negotiate</t>
+  </si>
+  <si>
+    <t>Rally</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Spear Use</t>
+  </si>
+  <si>
+    <t>Polearm - Hook</t>
+  </si>
+  <si>
+    <t>Spear Strike</t>
+  </si>
+  <si>
+    <t>Spear - Brace for Charge</t>
+  </si>
+  <si>
+    <t>Spear - Fend</t>
+  </si>
+  <si>
+    <t>Staves</t>
+  </si>
+  <si>
+    <t>Staff Strike</t>
+  </si>
+  <si>
+    <t>Staff - Brace for Charge</t>
+  </si>
+  <si>
+    <t>Staff - Circle of Death</t>
+  </si>
+  <si>
+    <t>Staff Parry</t>
+  </si>
+  <si>
+    <t>Sword Proficiency</t>
+  </si>
+  <si>
+    <t>Daring Thrust</t>
+  </si>
+  <si>
+    <t>Mighty Blow</t>
+  </si>
+  <si>
+    <t>Sword Disarm</t>
+  </si>
+  <si>
+    <t>Sword Feint</t>
+  </si>
+  <si>
+    <t>Sword Strike</t>
+  </si>
+  <si>
+    <t>Sword Parry</t>
+  </si>
+  <si>
+    <t>Theurgic Abilities</t>
+  </si>
+  <si>
+    <t>Air of Beatitude</t>
   </si>
   <si>
     <t>Augury</t>
   </si>
   <si>
+    <t>Back! Thou Creature From the Abyss</t>
+  </si>
+  <si>
+    <t>Blessed Arms</t>
+  </si>
+  <si>
+    <t>Create Holy Water</t>
+  </si>
+  <si>
+    <t>Divine Retribution</t>
+  </si>
+  <si>
+    <t>Exorcise</t>
+  </si>
+  <si>
+    <t>Grace of Mithras</t>
+  </si>
+  <si>
+    <t>Guiding Hand</t>
+  </si>
+  <si>
     <t>Heal</t>
   </si>
   <si>
+    <t>Light of Mithras</t>
+  </si>
+  <si>
+    <t>Litany of Redemption</t>
+  </si>
+  <si>
+    <t>No - Take Me!</t>
+  </si>
+  <si>
+    <t>Purify</t>
+  </si>
+  <si>
+    <t>Theurgic Lore</t>
+  </si>
+  <si>
+    <t>Hold Undead</t>
+  </si>
+  <si>
     <t>Turn Undead</t>
   </si>
   <si>
-    <t>Monster Abilities</t>
-  </si>
-  <si>
-    <t>Horns, Lesser</t>
-  </si>
-  <si>
-    <t>Horns</t>
-  </si>
-  <si>
-    <t>Horns, Greater</t>
-  </si>
-  <si>
-    <t>Poisonous Bite</t>
-  </si>
-  <si>
-    <t>Claw</t>
-  </si>
-  <si>
-    <t>Fly</t>
-  </si>
-  <si>
-    <t>Summon Demon</t>
-  </si>
-  <si>
-    <t>Demonic Instability</t>
-  </si>
-  <si>
-    <t>Prehensile Tongue</t>
-  </si>
-  <si>
-    <t>Prehensile Tail</t>
-  </si>
-  <si>
-    <t>Countless Bites</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>Regeneration</t>
-  </si>
-  <si>
-    <t>Swarm</t>
-  </si>
-  <si>
-    <t>Necromancy</t>
-  </si>
-  <si>
-    <t>Commune with the Dead</t>
-  </si>
-  <si>
-    <t>Graft Flesh</t>
-  </si>
-  <si>
-    <t>Stay Death</t>
-  </si>
-  <si>
-    <t>Offering for the Blood Soucriant</t>
-  </si>
-  <si>
-    <t>Physical Abilities</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Flee</t>
-  </si>
-  <si>
-    <t>Jump</t>
-  </si>
-  <si>
-    <t>Swim</t>
-  </si>
-  <si>
-    <t>Climb</t>
-  </si>
-  <si>
-    <t>Throw</t>
-  </si>
-  <si>
-    <t>Notice</t>
-  </si>
-  <si>
-    <t>Listen</t>
-  </si>
-  <si>
-    <t>Dodge</t>
-  </si>
-  <si>
-    <t>Kick</t>
-  </si>
-  <si>
-    <t>Grapple</t>
-  </si>
-  <si>
-    <t>Head Butt</t>
-  </si>
-  <si>
-    <t>Juggernaut</t>
-  </si>
-  <si>
-    <t>Sure Feet</t>
-  </si>
-  <si>
-    <t>Punch</t>
-  </si>
-  <si>
-    <t>Rest</t>
-  </si>
-  <si>
-    <t>Sleep</t>
-  </si>
-  <si>
-    <t>Rune Magic</t>
-  </si>
-  <si>
-    <t>Sign of Idreshein</t>
-  </si>
-  <si>
-    <t>Shield Proficiency</t>
-  </si>
-  <si>
-    <t>Shield Block</t>
-  </si>
-  <si>
-    <t>Shield Support</t>
-  </si>
-  <si>
-    <t>Shield Push</t>
-  </si>
-  <si>
-    <t>Skullduggery Abilities</t>
-  </si>
-  <si>
-    <t>Cloak Fighting</t>
-  </si>
-  <si>
-    <t>Sleight of Hand</t>
-  </si>
-  <si>
-    <t>Sneak</t>
-  </si>
-  <si>
-    <t>Disguise</t>
-  </si>
-  <si>
-    <t>Trap Work</t>
-  </si>
-  <si>
-    <t>Pick Locks</t>
-  </si>
-  <si>
-    <t>Concealment</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>Ropecraft</t>
-  </si>
-  <si>
-    <t>Cryptogrtaphy</t>
-  </si>
-  <si>
-    <t>Contortionist/Escape Artist</t>
-  </si>
-  <si>
-    <t>Social Abilities</t>
-  </si>
-  <si>
-    <t>Intimidate</t>
-  </si>
-  <si>
-    <t>Interrogate/Torture</t>
-  </si>
-  <si>
-    <t>Deceive</t>
-  </si>
-  <si>
-    <t>Perceive</t>
-  </si>
-  <si>
-    <t>Negotiate</t>
-  </si>
-  <si>
-    <t>High Etiquette</t>
-  </si>
-  <si>
-    <t>Etiquette</t>
-  </si>
-  <si>
-    <t>Low Etiquette</t>
-  </si>
-  <si>
-    <t>High Contacts</t>
-  </si>
-  <si>
-    <t>Contacts</t>
-  </si>
-  <si>
-    <t>Low Contacts</t>
-  </si>
-  <si>
-    <t>Leadership</t>
-  </si>
-  <si>
-    <t>Rally</t>
-  </si>
-  <si>
-    <t>Yield</t>
-  </si>
-  <si>
-    <t>Spear Use</t>
-  </si>
-  <si>
-    <t>Spear Strike</t>
-  </si>
-  <si>
-    <t>Polearm - Hook</t>
-  </si>
-  <si>
-    <t>Spear - Brace for Charge</t>
-  </si>
-  <si>
-    <t>Spear - Circle of Death</t>
-  </si>
-  <si>
-    <t>Spear Parry</t>
-  </si>
-  <si>
-    <t>Special Abilities</t>
-  </si>
-  <si>
-    <t>Sixth Sense</t>
-  </si>
-  <si>
-    <t>Natural Sprinters</t>
-  </si>
-  <si>
-    <t>Fey Resilience</t>
-  </si>
-  <si>
-    <t>Staves</t>
-  </si>
-  <si>
-    <t>Staff Strike</t>
-  </si>
-  <si>
-    <t>Staff - Brace for Charge</t>
-  </si>
-  <si>
-    <t>Staff - Circle of Death</t>
-  </si>
-  <si>
-    <t>Staff Parry</t>
-  </si>
-  <si>
-    <t>Sword Proficiency</t>
-  </si>
-  <si>
-    <t>Sword Strike</t>
-  </si>
-  <si>
-    <t>Mighty Blow</t>
-  </si>
-  <si>
-    <t>Sword Feint</t>
-  </si>
-  <si>
-    <t>Sword Parry</t>
-  </si>
-  <si>
-    <t>Sword Disarm</t>
+    <t>Destroy Undead</t>
+  </si>
+  <si>
+    <t>Witness Me!</t>
   </si>
   <si>
     <t>Transport Abilities</t>
@@ -697,91 +865,88 @@
     <t>Animal Handling</t>
   </si>
   <si>
+    <t>Carter</t>
+  </si>
+  <si>
     <t>Horse-Riding</t>
   </si>
   <si>
-    <t>Drive Cart</t>
+    <t>Master</t>
   </si>
   <si>
     <t>Sailor</t>
   </si>
   <si>
-    <t>Master</t>
-  </si>
-  <si>
     <t>Wild Magic</t>
   </si>
   <si>
+    <t>Call of the Wild</t>
+  </si>
+  <si>
+    <t>Howl of the Hunt</t>
+  </si>
+  <si>
+    <t>Hyperosmia</t>
+  </si>
+  <si>
+    <t>Therianthropy</t>
+  </si>
+  <si>
+    <t>Vermin Swarm</t>
+  </si>
+  <si>
     <t>Spider Climb</t>
   </si>
   <si>
-    <t>Hyperosmia</t>
-  </si>
-  <si>
-    <t>Vermin Swarm</t>
-  </si>
-  <si>
-    <t>Call of the Wild</t>
-  </si>
-  <si>
-    <t>Therianthropy</t>
+    <t>Wild Magic Lore</t>
+  </si>
+  <si>
+    <t>Warp Wood</t>
   </si>
   <si>
     <t>Wilderness Abilities</t>
   </si>
   <si>
+    <t>Dungeoneering</t>
+  </si>
+  <si>
+    <t>Hunting</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
     <t>Stealth</t>
   </si>
   <si>
+    <t>Survivalism</t>
+  </si>
+  <si>
     <t>Tracking</t>
   </si>
   <si>
     <t>Wayfinding</t>
   </si>
   <si>
-    <t>Scout</t>
-  </si>
-  <si>
-    <t>Survivalism</t>
-  </si>
-  <si>
-    <t>Hunting</t>
-  </si>
-  <si>
-    <t>Dungeoneering</t>
+    <t>Wilderness Lore [Type]</t>
+  </si>
+  <si>
+    <t>Second Son</t>
+  </si>
+  <si>
+    <t>Hedge Wizard</t>
+  </si>
+  <si>
+    <t>Chevalier</t>
+  </si>
+  <si>
+    <t>Penitent Brother</t>
   </si>
   <si>
     <t>Black Coat</t>
   </si>
   <si>
-    <t>Red Mage</t>
-  </si>
-  <si>
-    <t>Outrider</t>
-  </si>
-  <si>
-    <t>Rake</t>
-  </si>
-  <si>
-    <t>Halfling Rover</t>
-  </si>
-  <si>
-    <t>Dwarven Shield Warrior</t>
-  </si>
-  <si>
-    <t>Summoner</t>
-  </si>
-  <si>
-    <t>Bard</t>
-  </si>
-  <si>
-    <t>Witch Hunter</t>
-  </si>
-  <si>
-    <t>Hedge Wizard</t>
-  </si>
-  <si>
-    <t>Elven Scion</t>
+    <t>Champion of Mithras</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K264"/>
+  <dimension ref="B2:K316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1187,1263 +1352,1523 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="C12" t="s">
-        <v>8</v>
+      <c r="B12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>13</v>
+      <c r="C17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="C20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="C21" t="s">
-        <v>17</v>
+      <c r="B21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" t="s">
-        <v>18</v>
+      <c r="C22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="C26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" t="s">
-        <v>27</v>
+      <c r="C31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="C41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="C42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="C43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="C44" t="s">
-        <v>40</v>
+      <c r="B44" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="C45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="C46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="C47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="C48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="C49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" t="s">
-        <v>46</v>
+      <c r="C50" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="C51" t="s">
-        <v>47</v>
+      <c r="B51" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="C53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" t="s">
-        <v>50</v>
+      <c r="C54" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="C55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="C56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" t="s">
-        <v>54</v>
+      <c r="C58" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="C59" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="C60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="C61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="C62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="C63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="C64" t="s">
-        <v>59</v>
+      <c r="B64" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" t="s">
-        <v>60</v>
+      <c r="C65" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="C66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="C67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="C68" t="s">
-        <v>63</v>
+      <c r="B68" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="C69" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="C70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="C71" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="C72" t="s">
-        <v>67</v>
+      <c r="B72" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="C73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="C74" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="C75" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="C76" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="C77" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" t="s">
-        <v>73</v>
+      <c r="C78" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="C79" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="C80" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="C81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="C82" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="C83" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="C84" t="s">
-        <v>79</v>
+      <c r="B84" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" t="s">
-        <v>80</v>
+      <c r="C85" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="C86" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="C87" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="C88" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="C89" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="C90" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="C91" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="C92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="C93" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="C94" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="C95" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" t="s">
-        <v>91</v>
+      <c r="C96" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="2:3">
-      <c r="C97" t="s">
-        <v>92</v>
+      <c r="B97" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="C98" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="C99" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" t="s">
-        <v>95</v>
+      <c r="C100" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="C101" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="C102" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" t="s">
-        <v>98</v>
+      <c r="C103" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="C104" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="C105" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="C106" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="C107" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="2:3">
-      <c r="C108" t="s">
-        <v>103</v>
+      <c r="B108" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="C109" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="C110" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" t="s">
-        <v>106</v>
+      <c r="C111" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="C112" t="s">
-        <v>107</v>
+      <c r="B112" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="C113" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="C114" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="2:3">
-      <c r="C115" t="s">
-        <v>110</v>
+      <c r="B115" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="C116" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="C117" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="C118" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="C119" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="C120" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="C121" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="C122" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="2:3">
       <c r="C123" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="C124" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="B125" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="C126" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="C127" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="C128" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="C129" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="C130" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="C131" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" t="s">
-        <v>127</v>
+      <c r="C132" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="2:3">
       <c r="C133" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="C134" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="2:3">
       <c r="C135" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="C136" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" t="s">
-        <v>132</v>
+      <c r="C137" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="C138" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="C139" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="C140" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="C141" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="C142" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="2:3">
-      <c r="C143" t="s">
-        <v>138</v>
+      <c r="B143" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="C144" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="C145" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="C146" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="2:3">
       <c r="C147" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="C148" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="2:3">
       <c r="C149" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="C150" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="2:3">
-      <c r="C151" t="s">
-        <v>146</v>
+      <c r="B151" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" t="s">
-        <v>147</v>
+      <c r="C152" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="C153" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="2:3">
       <c r="C154" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="C155" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="2:3">
-      <c r="C156" t="s">
-        <v>150</v>
+      <c r="B156" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="2:3">
       <c r="C157" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" t="s">
-        <v>152</v>
+      <c r="C158" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="2:3">
       <c r="C159" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="2:3">
       <c r="C160" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="3:3">
       <c r="C161" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="3:3">
       <c r="C162" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="3:3">
       <c r="C163" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="3:3">
       <c r="C164" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="3:3">
       <c r="C165" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="3:3">
       <c r="C166" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="3:3">
       <c r="C167" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="3:3">
       <c r="C168" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="3:3">
       <c r="C170" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="3:3">
       <c r="C171" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="3:3">
       <c r="C172" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="3:3">
       <c r="C173" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="3:3">
       <c r="C174" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="3:3">
       <c r="C175" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" t="s">
-        <v>171</v>
+      <c r="C177" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="2:3">
-      <c r="C178" t="s">
-        <v>171</v>
+      <c r="B178" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="2:3">
       <c r="C179" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" t="s">
-        <v>173</v>
+      <c r="C180" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="C181" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="C182" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="C183" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="C185" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="2:3">
       <c r="C186" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="187" spans="2:3">
       <c r="C187" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="2:3">
       <c r="C188" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189" spans="2:3">
       <c r="C189" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="190" spans="2:3">
       <c r="C190" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191" spans="2:3">
       <c r="C191" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192" spans="2:3">
       <c r="C192" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
       <c r="C193" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
       <c r="C194" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
       <c r="C195" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3">
-      <c r="B196" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
       <c r="C197" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
       <c r="C198" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
       <c r="C199" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
       <c r="C200" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
       <c r="C201" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
       <c r="C202" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
       <c r="C203" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
       <c r="C204" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
       <c r="C205" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
       <c r="C206" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
       <c r="C207" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
       <c r="C208" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="209" spans="2:3">
-      <c r="C209" t="s">
-        <v>202</v>
+      <c r="B209" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="210" spans="2:3">
       <c r="C210" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" t="s">
-        <v>204</v>
+      <c r="C211" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="212" spans="2:3">
       <c r="C212" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="213" spans="2:3">
       <c r="C213" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214" spans="2:3">
       <c r="C214" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="215" spans="2:3">
-      <c r="C215" t="s">
-        <v>208</v>
+      <c r="B215" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="216" spans="2:3">
       <c r="C216" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" t="s">
-        <v>210</v>
+      <c r="C217" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="218" spans="2:3">
       <c r="C218" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="219" spans="2:3">
-      <c r="C219" t="s">
-        <v>212</v>
+      <c r="B219" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="220" spans="2:3">
       <c r="C220" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" t="s">
-        <v>214</v>
+      <c r="C221" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="2:3">
       <c r="C222" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="223" spans="2:3">
-      <c r="C223" t="s">
-        <v>216</v>
+      <c r="B223" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="224" spans="2:3">
       <c r="C224" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="225" spans="2:3">
       <c r="C225" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" t="s">
-        <v>219</v>
+      <c r="C226" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="227" spans="2:3">
       <c r="C227" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="228" spans="2:3">
       <c r="C228" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="229" spans="2:3">
       <c r="C229" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="230" spans="2:3">
       <c r="C230" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="231" spans="2:3">
       <c r="C231" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" t="s">
-        <v>225</v>
+      <c r="C232" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="233" spans="2:3">
       <c r="C233" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="234" spans="2:3">
       <c r="C234" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="235" spans="2:3">
       <c r="C235" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="236" spans="2:3">
-      <c r="C236" t="s">
-        <v>229</v>
+      <c r="B236" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="237" spans="2:3">
       <c r="C237" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" t="s">
-        <v>231</v>
+      <c r="C238" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="239" spans="2:3">
       <c r="C239" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="240" spans="2:3">
       <c r="C240" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="2:3">
       <c r="C241" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="242" spans="2:3">
       <c r="C242" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="243" spans="2:3">
       <c r="C243" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="244" spans="2:3">
-      <c r="B244" t="s">
-        <v>237</v>
+      <c r="C244" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="2:3">
       <c r="C245" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="246" spans="2:3">
       <c r="C246" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="247" spans="2:3">
       <c r="C247" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="248" spans="2:3">
-      <c r="C248" t="s">
-        <v>241</v>
+      <c r="B248" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="249" spans="2:3">
       <c r="C249" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="250" spans="2:3">
       <c r="C250" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="251" spans="2:3">
       <c r="C251" t="s">
-        <v>244</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="C252" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" t="s">
-        <v>245</v>
+      <c r="C254" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" t="s">
-        <v>246</v>
+      <c r="C255" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2">
+      <c r="C256" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="C257" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
       <c r="B258" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2">
-      <c r="B259" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2">
-      <c r="B260" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2">
-      <c r="B261" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2">
-      <c r="B262" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2">
-      <c r="B263" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="264" spans="2:2">
-      <c r="B264" t="s">
+    <row r="259" spans="2:3">
+      <c r="C259" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="C260" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="C261" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="C262" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="C263" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="C264" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="C266" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="C267" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="C268" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="C269" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="C270" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="C271" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="C272" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="C273" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3">
+      <c r="C274" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="C275" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3">
+      <c r="C276" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="C277" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3">
+      <c r="C278" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3">
+      <c r="C279" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3">
+      <c r="C280" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3">
+      <c r="C281" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="C282" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3">
+      <c r="C283" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3">
+      <c r="C284" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3">
+      <c r="B285" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3">
+      <c r="C286" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3">
+      <c r="C287" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3">
+      <c r="C288" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3">
+      <c r="C289" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3">
+      <c r="C290" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3">
+      <c r="B291" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3">
+      <c r="C292" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3">
+      <c r="C293" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3">
+      <c r="C294" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3">
+      <c r="C295" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3">
+      <c r="C296" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3">
+      <c r="C297" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3">
+      <c r="C298" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="C299" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="B300" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="C301" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3">
+      <c r="C302" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3">
+      <c r="C303" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3">
+      <c r="C304" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3">
+      <c r="C305" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3">
+      <c r="C306" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="C307" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="C308" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="B311" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3">
+      <c r="B312" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3">
+      <c r="B313" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3">
+      <c r="B314" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3">
+      <c r="B315" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="B316" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
